--- a/thong_tin_nhan_vien.xlsx
+++ b/thong_tin_nhan_vien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,14 +521,20 @@
           <t>Học sinh</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>11111</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1111</v>
-      </c>
-      <c r="I2" t="n">
-        <v>111</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11111</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -538,6 +544,63 @@
       <c r="K2" t="inlineStr">
         <is>
           <t>Không</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Có</t>
         </is>
       </c>
     </row>
